--- a/Samana/Files/mentor_verjaardagen.xlsx
+++ b/Samana/Files/mentor_verjaardagen.xlsx
@@ -6,7 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mentor" sheetId="1" r:id="R73b9fea2fa394dc7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mentor" sheetId="1" r:id="Re5dfa1dbfd5940ea"/>
+    <x:sheet name="Verjaardagen" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>februari 2017</x:t>
   </x:si>
@@ -50,6 +51,21 @@
   </x:si>
   <x:si>
     <x:t>4 huizen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nick Grote piet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nick NogGrotere Piet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fien Iets</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pietje Puk</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Pietje Pak </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -118,7 +134,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -131,8 +147,11 @@
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -146,6 +165,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -174,7 +197,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="Re6f486c8f1194172" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="R9e43b99acbbc4df9" cstate="print"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -484,12 +507,12 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="4" max="16384" width="9.140625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="3.190625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="39.890625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="17.190625" style="1" customWidth="1"/>
+    <x:col min="4" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="7" spans="1:3" s="0" customFormat="1">
@@ -513,6 +536,7 @@
       <x:c r="B11" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="C11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:3" s="0" customFormat="1">
       <x:c r="A12" s="1" t="n">
@@ -577,7 +601,96 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2f9002c8e47b4e9a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R99953085eea444aa"/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D8"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="5" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="24.810625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="14.710625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="22.780625" style="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="2" spans="1:4" s="0" customFormat="1">
+      <x:c r="B2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:4" s="0" customFormat="1">
+      <x:c r="B4" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="4">
+        <x:v>29346</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="n">
+        <x:v>72.0833360767789</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" s="0" customFormat="1">
+      <x:c r="B5" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="4">
+        <x:v>26424</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="n">
+        <x:v>72.0833360767789</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" s="0" customFormat="1">
+      <x:c r="B6" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="4">
+        <x:v>19690</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="n">
+        <x:v>278.083336076779</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" s="0" customFormat="1">
+      <x:c r="B7" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="4">
+        <x:v>20090</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="n">
+        <x:v>-51.9166639232211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4" s="0" customFormat="1">
+      <x:c r="B8" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C8" s="4">
+        <x:v>32922</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="n">
+        <x:v>-3.91666392322106</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>